--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7471,4 +7472,2638 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.1709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.8766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.6240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.9686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.0438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.3826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.9004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.2370</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.9468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.0409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.0363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.0157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.7685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.1274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.4310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.4082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.6691</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4696</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0747</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9933</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8476</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1403</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10085,7 +10086,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>90.07</t>
@@ -10100,6 +10100,3786 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.9381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.7588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.5841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.0685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.1461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.7183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>153.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.3296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.1934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.4727</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.2892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.0458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.4913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.3275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.2501</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.8985</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6870</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3366</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9596</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6243</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9995</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8802</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13886,4 +13887,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>126.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13895,7 +13896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13906,17 +13907,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13926,14 +13947,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>137.86</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13942,14 +13985,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>153.86</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.2967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -13958,14 +14023,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>156.56</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13974,13 +14061,2317 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.1376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.7166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.7847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.3924</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.5630</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.3106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.8048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.4586</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.1860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5.1359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.7349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.7152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.4873</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8954</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8945</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7939</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0871</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9388</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4230</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>138.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>98</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>126.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16270,7 +16271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16281,17 +16282,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16301,14 +16322,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>138.55</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -16317,14 +16360,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>137.86</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -16333,14 +16398,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>153.86</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.5219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -16349,14 +16436,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>84</v>
-      </c>
-      <c r="D5" t="n">
-        <v>156.56</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -16365,13 +16474,2248 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6441</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2892</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7854</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4914</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>138.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>137.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>98</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>126.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18598,7 +18599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18609,17 +18610,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18629,14 +18650,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.17</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -18645,14 +18688,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>138.55</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.1359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -18661,14 +18726,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>98</v>
-      </c>
-      <c r="D4" t="n">
-        <v>137.86</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -18677,14 +18764,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>153.86</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -18693,14 +18802,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>84</v>
-      </c>
-      <c r="D6" t="n">
-        <v>156.56</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.0649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -18709,13 +18840,2535 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.6410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.0795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.2625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>121.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.9898</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.9212</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2397</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1974</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8858</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5580</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4972</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.06999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>138.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>137.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>98</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>126.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002493-荣盛石化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>96.06999999999999</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>85.17</v>
+        <v>96.06999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>138.55</v>
+        <v>85.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>137.86</v>
+        <v>138.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>153.86</v>
+        <v>137.86</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>156.56</v>
+        <v>153.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>156.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>98</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>126.6</v>
       </c>
     </row>
@@ -600,6 +617,3368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4445</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8811</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4481</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4437</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3235,7 +6614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5562,7 +8941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7936,7 +11315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11716,7 +15095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14349,7 +17728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17597,7 +20976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
